--- a/FYS-SE-IS1_t_Individuele_Verantwoording-v17.2.xlsx
+++ b/FYS-SE-IS1_t_Individuele_Verantwoording-v17.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\School\Vakken\FYS\Beoordelingsmodellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Desktop\FYS Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten-Baten" sheetId="1" r:id="rId1"/>
@@ -183,55 +183,54 @@
     <t>JavaCode (200 regels)</t>
   </si>
   <si>
-    <t>Dit formulier moet ingevuld en geupload worden in de assignment folder van de VLO, drie dagen voor de individuele methoden en technieken toets.
-Op dit formulier vul je per team in, voor welke onderdelen van deelproducten individuele studenten de verantwoording hebben genomen of gekregen. Verantwoording kan niet gedeeld worden tussen teamleden, dus elk diagram, non-functional requirement, scherm, testscenaro en regel van java source code kan aan slechts 1 student toegewezen worden. Gebruik diagramnummers, requirement nummers etc. om de verwijzing te maken. (Java bronbestanden kunnen wel aan meerdere studenten toegewezen worden, mits in Java commentaar duidelijk gemaakt wordt wie verantwoordelijk is voor welk deel).
+    <t>hoofdcategorie:</t>
+  </si>
+  <si>
+    <t>Non-functional requirements</t>
+  </si>
+  <si>
+    <t>IS-109</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Süleyman Timur Yağcı</t>
+  </si>
+  <si>
+    <t>Stan van Weringh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stijn Klopper </t>
+  </si>
+  <si>
+    <t>Tarık Yıldırım</t>
+  </si>
+  <si>
+    <t>Matthijs Snijders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauro Freitas Tomé </t>
+  </si>
+  <si>
+    <t>Rick den Otter</t>
+  </si>
+  <si>
+    <t>2.3.1 / Figuur 1</t>
+  </si>
+  <si>
+    <t>2.3.2 / Figuur 2</t>
+  </si>
+  <si>
+    <t>2.4.1 / Figuur 3</t>
+  </si>
+  <si>
+    <t>2.4.2 / Figuur 4</t>
+  </si>
+  <si>
+    <t>Dit formulier moet ingevudelijk is voor welk deel).
 Je moet wel samenwerken en elkaar helpen met elkaars verantwoordelijkheden. Maar de student die hier geregistreerd is zal tijdens de individuele methoden en technieken toets verantwoordelijk worden gehouden voor de kwaliteit van dat onderdeel.
 Dit formulier zal gebruikt worden door de assessoren om per student de juiste onderwerpen van het assessment te kiezen. Daarnaast zul je tijdens de individuele methoden en technieken toets ook ondervraagd worden op onderdelen die je gezamenlijk hebt geproduceerd.</t>
-  </si>
-  <si>
-    <t>hoofdcategorie:</t>
-  </si>
-  <si>
-    <t>Non-functional requirements</t>
-  </si>
-  <si>
-    <t>IS-109</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Süleyman Timur Yağcı</t>
-  </si>
-  <si>
-    <t>Stan van Weringh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stijn Klopper </t>
-  </si>
-  <si>
-    <t>Tarık Yıldırım</t>
-  </si>
-  <si>
-    <t>Matthijs Snijders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro Freitas Tomé </t>
-  </si>
-  <si>
-    <t>Rick den Otter</t>
-  </si>
-  <si>
-    <t>2.3.1 / Figuur 1</t>
-  </si>
-  <si>
-    <t>2.3.2 / Figuur 2</t>
-  </si>
-  <si>
-    <t>2.4.1 / Figuur 3</t>
-  </si>
-  <si>
-    <t>2.4.2 / Figuur 4</t>
   </si>
 </sst>
 </file>
@@ -732,6 +731,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -741,6 +741,9 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -756,10 +759,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,18 +1170,18 @@
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="A2" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="58"/>
@@ -1202,11 +1201,11 @@
         <v>23</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="D4" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1218,11 +1217,11 @@
         <v>45</v>
       </c>
       <c r="C5" s="47"/>
-      <c r="D5" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -1234,11 +1233,11 @@
         <v>24</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="71">
+      <c r="D6" s="67">
         <v>43031</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -1288,25 +1287,25 @@
         <v>26</v>
       </c>
       <c r="C9" s="47"/>
-      <c r="D9" s="72">
+      <c r="D9" s="63">
         <v>500764449</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="63">
         <v>500771870</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="63">
         <v>500770512</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="63">
         <v>500780772</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="63">
         <v>500780453</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="63">
         <v>500758281</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="63">
         <v>500749952</v>
       </c>
     </row>
@@ -1316,26 +1315,26 @@
         <v>25</v>
       </c>
       <c r="C10" s="47"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="F10" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="G10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="H10" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="I10" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="J10" s="63" t="s">
         <v>60</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="51" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1376,24 +1375,24 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="I13" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="J13" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="34"/>
@@ -1684,111 +1683,111 @@
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
     </row>
     <row r="3" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="67">
+      <c r="C3" s="69">
         <v>42614</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
     </row>
     <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
     </row>
     <row r="6" spans="1:33" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1802,39 +1801,39 @@
     <row r="7" spans="1:33" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="72"/>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
